--- a/attached_assets/lottery_data_template_20250502_033148.xlsx
+++ b/attached_assets/lottery_data_template_20250502_033148.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mafor\Downloads\lottery_data_combined_20250502_033148\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{274D0E85-1254-455C-9FC2-089B3553811D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B97D07-75B9-4589-92C9-7C846324A082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{BDD31AA4-EAB3-4955-82FF-06F52FB9E622}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3086" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3109" uniqueCount="593">
   <si>
     <t>Game Name</t>
   </si>
@@ -1791,6 +1791,30 @@
   </si>
   <si>
     <t>Note: 'Data N/A' indicates that the detailed prize breakdown or other info for historical draws was not visible or applicable in the source screenshots.</t>
+  </si>
+  <si>
+    <t>04 06 17 18 21 40</t>
+  </si>
+  <si>
+    <t>R142,862.80</t>
+  </si>
+  <si>
+    <t>R2,442.10</t>
+  </si>
+  <si>
+    <t>R1,104.40</t>
+  </si>
+  <si>
+    <t>R123.50</t>
+  </si>
+  <si>
+    <t>R86.10</t>
+  </si>
+  <si>
+    <t>R4,955,045.40</t>
+  </si>
+  <si>
+    <t>R6,335,505.00</t>
   </si>
 </sst>
 </file>
@@ -2189,7 +2213,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010878EC-8D76-4923-8DF0-E16760B81910}">
-  <dimension ref="A1:AL143"/>
+  <dimension ref="A1:AL144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A1:XFD8"/>
@@ -5947,16 +5971,16 @@
         <v>208</v>
       </c>
       <c r="B36" s="3">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="C36" s="4">
-        <v>45773</v>
+        <v>45777</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>209</v>
+        <v>585</v>
       </c>
       <c r="E36" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>37</v>
@@ -5971,52 +5995,52 @@
         <v>39</v>
       </c>
       <c r="J36" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>210</v>
+        <v>586</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M36" s="3">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>211</v>
+        <v>587</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>42</v>
       </c>
       <c r="P36" s="3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>212</v>
+        <v>588</v>
       </c>
       <c r="R36" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S36" s="3">
-        <v>1520</v>
+        <v>1819</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>213</v>
+        <v>589</v>
       </c>
       <c r="U36" s="3" t="s">
         <v>46</v>
       </c>
       <c r="V36" s="3">
-        <v>2285</v>
+        <v>37332</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>214</v>
+        <v>590</v>
       </c>
       <c r="X36" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Y36" s="3">
-        <v>42726</v>
+        <v>47574</v>
       </c>
       <c r="Z36" s="3" t="s">
         <v>132</v>
@@ -6025,28 +6049,28 @@
         <v>50</v>
       </c>
       <c r="AB36" s="3">
-        <v>29855</v>
+        <v>31381</v>
       </c>
       <c r="AC36" s="3" t="s">
         <v>133</v>
       </c>
       <c r="AD36" s="3" t="s">
-        <v>215</v>
+        <v>38</v>
       </c>
       <c r="AE36" s="3" t="s">
-        <v>216</v>
+        <v>591</v>
       </c>
       <c r="AF36" s="3" t="s">
-        <v>217</v>
+        <v>592</v>
       </c>
       <c r="AG36" s="3" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="AH36" s="3" t="s">
         <v>56</v>
       </c>
       <c r="AI36" s="4">
-        <v>45777</v>
+        <v>45780</v>
       </c>
     </row>
     <row r="37" spans="1:35" ht="72.5" x14ac:dyDescent="0.35">
@@ -6054,16 +6078,16 @@
         <v>208</v>
       </c>
       <c r="B37" s="3">
-        <v>2535</v>
+        <v>2536</v>
       </c>
       <c r="C37" s="4">
-        <v>45770</v>
+        <v>45773</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E37" s="3">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>37</v>
@@ -6078,52 +6102,52 @@
         <v>39</v>
       </c>
       <c r="J37" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M37" s="3">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="O37" s="3" t="s">
         <v>42</v>
       </c>
       <c r="P37" s="3">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="R37" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S37" s="3">
-        <v>1273</v>
+        <v>1520</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="U37" s="3" t="s">
         <v>46</v>
       </c>
       <c r="V37" s="3">
-        <v>2080</v>
+        <v>2285</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="X37" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Y37" s="3">
-        <v>26126</v>
+        <v>42726</v>
       </c>
       <c r="Z37" s="3" t="s">
         <v>132</v>
@@ -6132,28 +6156,28 @@
         <v>50</v>
       </c>
       <c r="AB37" s="3">
-        <v>22820</v>
+        <v>29855</v>
       </c>
       <c r="AC37" s="3" t="s">
         <v>133</v>
       </c>
       <c r="AD37" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AE37" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AF37" s="3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AG37" s="3" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="AH37" s="3" t="s">
         <v>56</v>
       </c>
       <c r="AI37" s="4">
-        <v>45773</v>
+        <v>45777</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="72.5" x14ac:dyDescent="0.35">
@@ -6161,16 +6185,16 @@
         <v>208</v>
       </c>
       <c r="B38" s="3">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="C38" s="4">
-        <v>45766</v>
+        <v>45770</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E38" s="3">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>37</v>
@@ -6185,52 +6209,52 @@
         <v>39</v>
       </c>
       <c r="J38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>227</v>
+        <v>38</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M38" s="3">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>42</v>
       </c>
       <c r="P38" s="3">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="R38" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S38" s="3">
-        <v>1936</v>
+        <v>1273</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="U38" s="3" t="s">
         <v>46</v>
       </c>
       <c r="V38" s="3">
-        <v>3100</v>
+        <v>2080</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="X38" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Y38" s="3">
-        <v>42720</v>
+        <v>26126</v>
       </c>
       <c r="Z38" s="3" t="s">
         <v>132</v>
@@ -6239,28 +6263,28 @@
         <v>50</v>
       </c>
       <c r="AB38" s="3">
-        <v>32720</v>
+        <v>22820</v>
       </c>
       <c r="AC38" s="3" t="s">
         <v>133</v>
       </c>
       <c r="AD38" s="3" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="AE38" s="3" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="AF38" s="3" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="AG38" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="AH38" s="3" t="s">
         <v>56</v>
       </c>
       <c r="AI38" s="4">
-        <v>45770</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="72.5" x14ac:dyDescent="0.35">
@@ -6268,16 +6292,16 @@
         <v>208</v>
       </c>
       <c r="B39" s="3">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="C39" s="4">
-        <v>45763</v>
+        <v>45766</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="E39" s="3">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>37</v>
@@ -6292,52 +6316,52 @@
         <v>39</v>
       </c>
       <c r="J39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M39" s="3">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="O39" s="3" t="s">
         <v>42</v>
       </c>
       <c r="P39" s="3">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="R39" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S39" s="3">
-        <v>1946</v>
+        <v>1936</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="U39" s="3" t="s">
         <v>46</v>
       </c>
       <c r="V39" s="3">
-        <v>2671</v>
+        <v>3100</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="X39" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Y39" s="3">
-        <v>36484</v>
+        <v>42720</v>
       </c>
       <c r="Z39" s="3" t="s">
         <v>132</v>
@@ -6346,28 +6370,28 @@
         <v>50</v>
       </c>
       <c r="AB39" s="3">
-        <v>28718</v>
+        <v>32720</v>
       </c>
       <c r="AC39" s="3" t="s">
         <v>133</v>
       </c>
       <c r="AD39" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AE39" s="3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AF39" s="3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AG39" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="AH39" s="3" t="s">
         <v>56</v>
       </c>
       <c r="AI39" s="4">
-        <v>45766</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="40" spans="1:35" ht="72.5" x14ac:dyDescent="0.35">
@@ -6375,16 +6399,16 @@
         <v>208</v>
       </c>
       <c r="B40" s="3">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="C40" s="4">
-        <v>45759</v>
+        <v>45763</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E40" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>37</v>
@@ -6408,43 +6432,43 @@
         <v>40</v>
       </c>
       <c r="M40" s="3">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>42</v>
       </c>
       <c r="P40" s="3">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="R40" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S40" s="3">
-        <v>1517</v>
+        <v>1946</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="U40" s="3" t="s">
         <v>46</v>
       </c>
       <c r="V40" s="3">
-        <v>2370</v>
+        <v>2671</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="X40" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Y40" s="3">
-        <v>37691</v>
+        <v>36484</v>
       </c>
       <c r="Z40" s="3" t="s">
         <v>132</v>
@@ -6453,28 +6477,28 @@
         <v>50</v>
       </c>
       <c r="AB40" s="3">
-        <v>30992</v>
+        <v>28718</v>
       </c>
       <c r="AC40" s="3" t="s">
         <v>133</v>
       </c>
       <c r="AD40" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="AE40" s="3" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="AF40" s="3" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="AG40" s="3" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="AH40" s="3" t="s">
         <v>56</v>
       </c>
       <c r="AI40" s="4">
-        <v>45763</v>
+        <v>45766</v>
       </c>
     </row>
     <row r="41" spans="1:35" ht="72.5" x14ac:dyDescent="0.35">
@@ -6482,16 +6506,16 @@
         <v>208</v>
       </c>
       <c r="B41" s="3">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="C41" s="4">
-        <v>45756</v>
+        <v>45759</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E41" s="3">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>37</v>
@@ -6506,52 +6530,52 @@
         <v>39</v>
       </c>
       <c r="J41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>253</v>
+        <v>38</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M41" s="3">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>42</v>
       </c>
       <c r="P41" s="3">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S41" s="3">
-        <v>1042</v>
+        <v>1517</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>46</v>
       </c>
       <c r="V41" s="3">
-        <v>2006</v>
+        <v>2370</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="X41" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Y41" s="3">
-        <v>30762</v>
+        <v>37691</v>
       </c>
       <c r="Z41" s="3" t="s">
         <v>132</v>
@@ -6560,28 +6584,28 @@
         <v>50</v>
       </c>
       <c r="AB41" s="3">
-        <v>25711</v>
+        <v>30992</v>
       </c>
       <c r="AC41" s="3" t="s">
         <v>133</v>
       </c>
       <c r="AD41" s="3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AE41" s="3" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="AF41" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AG41" s="3" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="AH41" s="3" t="s">
         <v>56</v>
       </c>
       <c r="AI41" s="4">
-        <v>45759</v>
+        <v>45763</v>
       </c>
     </row>
     <row r="42" spans="1:35" ht="72.5" x14ac:dyDescent="0.35">
@@ -6589,16 +6613,16 @@
         <v>208</v>
       </c>
       <c r="B42" s="3">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="C42" s="4">
-        <v>45752</v>
+        <v>45756</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E42" s="3">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>37</v>
@@ -6613,52 +6637,52 @@
         <v>39</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>38</v>
+        <v>253</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M42" s="3">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>42</v>
       </c>
       <c r="P42" s="3">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S42" s="3">
-        <v>1777</v>
+        <v>1042</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>46</v>
       </c>
       <c r="V42" s="3">
-        <v>2629</v>
+        <v>2006</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Y42" s="3">
-        <v>35669</v>
+        <v>30762</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>132</v>
@@ -6667,28 +6691,28 @@
         <v>50</v>
       </c>
       <c r="AB42" s="3">
-        <v>29563</v>
+        <v>25711</v>
       </c>
       <c r="AC42" s="3" t="s">
         <v>133</v>
       </c>
       <c r="AD42" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE42" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF42" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG42" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH42" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI42" s="5" t="s">
-        <v>116</v>
+        <v>258</v>
+      </c>
+      <c r="AE42" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF42" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG42" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AH42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI42" s="4">
+        <v>45759</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="72.5" x14ac:dyDescent="0.35">
@@ -6696,91 +6720,91 @@
         <v>208</v>
       </c>
       <c r="B43" s="3">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="C43" s="4">
-        <v>45749</v>
+        <v>45752</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E43" s="3">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>116</v>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J43" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>116</v>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M43" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>116</v>
+      <c r="M43" s="3">
+        <v>31</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P43" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q43" s="5" t="s">
-        <v>116</v>
+      <c r="P43" s="3">
+        <v>87</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="S43" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="T43" s="5" t="s">
-        <v>116</v>
+      <c r="S43" s="3">
+        <v>1777</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="V43" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="W43" s="5" t="s">
-        <v>116</v>
+      <c r="V43" s="3">
+        <v>2629</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y43" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z43" s="5" t="s">
-        <v>116</v>
+      <c r="Y43" s="3">
+        <v>35669</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="AA43" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AB43" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC43" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD43" s="5" t="s">
-        <v>116</v>
+      <c r="AB43" s="3">
+        <v>29563</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="AE43" s="5" t="s">
         <v>116</v>
@@ -6803,16 +6827,16 @@
         <v>208</v>
       </c>
       <c r="B44" s="3">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="C44" s="4">
-        <v>45745</v>
+        <v>45749</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E44" s="3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>37</v>
@@ -6910,16 +6934,16 @@
         <v>208</v>
       </c>
       <c r="B45" s="3">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="C45" s="4">
-        <v>45742</v>
+        <v>45745</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E45" s="3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>37</v>
@@ -7017,16 +7041,16 @@
         <v>208</v>
       </c>
       <c r="B46" s="3">
-        <v>2526</v>
+        <v>2527</v>
       </c>
       <c r="C46" s="4">
-        <v>45738</v>
+        <v>45742</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E46" s="3">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>37</v>
@@ -7124,16 +7148,16 @@
         <v>208</v>
       </c>
       <c r="B47" s="3">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="C47" s="4">
-        <v>45735</v>
+        <v>45738</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E47" s="3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>37</v>
@@ -7231,16 +7255,16 @@
         <v>208</v>
       </c>
       <c r="B48" s="3">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="C48" s="4">
-        <v>45731</v>
+        <v>45735</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E48" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>37</v>
@@ -7338,16 +7362,16 @@
         <v>208</v>
       </c>
       <c r="B49" s="3">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="C49" s="4">
-        <v>45728</v>
+        <v>45731</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E49" s="3">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>37</v>
@@ -7445,16 +7469,16 @@
         <v>208</v>
       </c>
       <c r="B50" s="3">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="C50" s="4">
-        <v>45724</v>
+        <v>45728</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E50" s="3">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>37</v>
@@ -7552,16 +7576,16 @@
         <v>208</v>
       </c>
       <c r="B51" s="3">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="C51" s="4">
-        <v>45721</v>
+        <v>45724</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E51" s="3">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>37</v>
@@ -7654,251 +7678,242 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
+    <row r="52" spans="1:38" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2521</v>
+      </c>
+      <c r="C52" s="4">
+        <v>45721</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E52" s="3">
+        <v>16</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="T52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="W52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI52" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="61" spans="1:38" ht="58" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
+    <row r="62" spans="1:38" ht="58" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J62" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K61" s="3" t="s">
+      <c r="K62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L61" s="3" t="s">
+      <c r="L62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M61" s="3" t="s">
+      <c r="M62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N61" s="3" t="s">
+      <c r="N62" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O61" s="3" t="s">
+      <c r="O62" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P61" s="3" t="s">
+      <c r="P62" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q61" s="3" t="s">
+      <c r="Q62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R61" s="3" t="s">
+      <c r="R62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S61" s="3" t="s">
+      <c r="S62" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T61" s="3" t="s">
+      <c r="T62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U61" s="3" t="s">
+      <c r="U62" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V61" s="3" t="s">
+      <c r="V62" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W61" s="3" t="s">
+      <c r="W62" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X61" s="3" t="s">
+      <c r="X62" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y61" s="3" t="s">
+      <c r="Y62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z61" s="3" t="s">
+      <c r="Z62" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA61" s="3" t="s">
+      <c r="AA62" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB61" s="3" t="s">
+      <c r="AB62" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC61" s="3" t="s">
+      <c r="AC62" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD61" s="3" t="s">
+      <c r="AD62" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="AE61" s="3" t="s">
+      <c r="AE62" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="AF61" s="3" t="s">
+      <c r="AF62" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="AG61" s="3" t="s">
+      <c r="AG62" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AH61" s="3" t="s">
+      <c r="AH62" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AI61" s="3" t="s">
+      <c r="AI62" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AJ61" s="3" t="s">
+      <c r="AJ62" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AK61" s="3" t="s">
+      <c r="AK62" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AL61" s="3" t="s">
+      <c r="AL62" s="3" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:38" ht="87" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B62" s="3">
-        <v>1610</v>
-      </c>
-      <c r="C62" s="4">
-        <v>45776</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E62" s="3">
-        <v>11</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="M62" s="3">
-        <v>18</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P62" s="3">
-        <v>346</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="S62" s="3">
-        <v>1084</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V62" s="3">
-        <v>18088</v>
-      </c>
-      <c r="W62" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="X62" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>17014</v>
-      </c>
-      <c r="Z62" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA62" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>88257</v>
-      </c>
-      <c r="AC62" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD62" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="AE62" s="3">
-        <v>113965</v>
-      </c>
-      <c r="AF62" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="AG62" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH62" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="AI62" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="AJ62" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="AK62" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="AL62" s="4">
-        <v>45779</v>
       </c>
     </row>
     <row r="63" spans="1:38" ht="87" x14ac:dyDescent="0.35">
@@ -7906,13 +7921,13 @@
         <v>280</v>
       </c>
       <c r="B63" s="3">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="C63" s="4">
-        <v>45772</v>
+        <v>45776</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="E63" s="3">
         <v>11</v>
@@ -7939,52 +7954,52 @@
         <v>286</v>
       </c>
       <c r="M63" s="3">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="O63" s="3" t="s">
         <v>44</v>
       </c>
       <c r="P63" s="3">
-        <v>260</v>
+        <v>346</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="R63" s="3" t="s">
         <v>289</v>
       </c>
       <c r="S63" s="3">
-        <v>950</v>
+        <v>1084</v>
       </c>
       <c r="T63" s="3" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="U63" s="3" t="s">
         <v>48</v>
       </c>
       <c r="V63" s="3">
-        <v>17420</v>
+        <v>18088</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="X63" s="3" t="s">
         <v>292</v>
       </c>
       <c r="Y63" s="3">
-        <v>14424</v>
+        <v>17014</v>
       </c>
       <c r="Z63" s="3" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="AA63" s="3" t="s">
         <v>294</v>
       </c>
       <c r="AB63" s="3">
-        <v>82547</v>
+        <v>88257</v>
       </c>
       <c r="AC63" s="3" t="s">
         <v>133</v>
@@ -7993,28 +8008,28 @@
         <v>295</v>
       </c>
       <c r="AE63" s="3">
-        <v>136342</v>
+        <v>113965</v>
       </c>
       <c r="AF63" s="3" t="s">
         <v>296</v>
       </c>
       <c r="AG63" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="AH63" s="3" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="AI63" s="3" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="AJ63" s="3" t="s">
-        <v>61</v>
+        <v>300</v>
       </c>
       <c r="AK63" s="3" t="s">
         <v>301</v>
       </c>
       <c r="AL63" s="4">
-        <v>45776</v>
+        <v>45779</v>
       </c>
     </row>
     <row r="64" spans="1:38" ht="87" x14ac:dyDescent="0.35">
@@ -8022,16 +8037,16 @@
         <v>280</v>
       </c>
       <c r="B64" s="3">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C64" s="4">
-        <v>45769</v>
+        <v>45772</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E64" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>285</v>
@@ -8055,52 +8070,52 @@
         <v>286</v>
       </c>
       <c r="M64" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="O64" s="3" t="s">
         <v>44</v>
       </c>
       <c r="P64" s="3">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="R64" s="3" t="s">
         <v>289</v>
       </c>
       <c r="S64" s="3">
-        <v>1583</v>
+        <v>950</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="U64" s="3" t="s">
         <v>48</v>
       </c>
       <c r="V64" s="3">
-        <v>27920</v>
+        <v>17420</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="X64" s="3" t="s">
         <v>292</v>
       </c>
       <c r="Y64" s="3">
-        <v>25708</v>
+        <v>14424</v>
       </c>
       <c r="Z64" s="3" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="AA64" s="3" t="s">
         <v>294</v>
       </c>
       <c r="AB64" s="3">
-        <v>135171</v>
+        <v>82547</v>
       </c>
       <c r="AC64" s="3" t="s">
         <v>133</v>
@@ -8109,28 +8124,28 @@
         <v>295</v>
       </c>
       <c r="AE64" s="3">
-        <v>204605</v>
+        <v>136342</v>
       </c>
       <c r="AF64" s="3" t="s">
         <v>296</v>
       </c>
       <c r="AG64" s="3" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AH64" s="3" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="AI64" s="3" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="AJ64" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="AK64" s="3" t="s">
         <v>301</v>
       </c>
       <c r="AL64" s="4">
-        <v>45772</v>
+        <v>45776</v>
       </c>
     </row>
     <row r="65" spans="1:38" ht="87" x14ac:dyDescent="0.35">
@@ -8138,16 +8153,16 @@
         <v>280</v>
       </c>
       <c r="B65" s="3">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C65" s="4">
-        <v>45765</v>
+        <v>45769</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E65" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>285</v>
@@ -8162,61 +8177,61 @@
         <v>40</v>
       </c>
       <c r="J65" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>321</v>
+        <v>38</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>286</v>
       </c>
       <c r="M65" s="3">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="O65" s="3" t="s">
         <v>44</v>
       </c>
       <c r="P65" s="3">
-        <v>337</v>
+        <v>277</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="R65" s="3" t="s">
         <v>289</v>
       </c>
       <c r="S65" s="3">
-        <v>1558</v>
+        <v>1583</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="U65" s="3" t="s">
         <v>48</v>
       </c>
       <c r="V65" s="3">
-        <v>25986</v>
+        <v>27920</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>51</v>
+        <v>315</v>
       </c>
       <c r="X65" s="3" t="s">
         <v>292</v>
       </c>
       <c r="Y65" s="3">
-        <v>25151</v>
+        <v>25708</v>
       </c>
       <c r="Z65" s="3" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="AA65" s="3" t="s">
         <v>294</v>
       </c>
       <c r="AB65" s="3">
-        <v>132530</v>
+        <v>135171</v>
       </c>
       <c r="AC65" s="3" t="s">
         <v>133</v>
@@ -8225,28 +8240,28 @@
         <v>295</v>
       </c>
       <c r="AE65" s="3">
-        <v>212567</v>
+        <v>204605</v>
       </c>
       <c r="AF65" s="3" t="s">
         <v>296</v>
       </c>
       <c r="AG65" s="3" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="AH65" s="3" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="AI65" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="AJ65" s="3" t="s">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="AK65" s="3" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="AL65" s="4">
-        <v>45769</v>
+        <v>45772</v>
       </c>
     </row>
     <row r="66" spans="1:38" ht="87" x14ac:dyDescent="0.35">
@@ -8254,16 +8269,16 @@
         <v>280</v>
       </c>
       <c r="B66" s="3">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="C66" s="4">
-        <v>45762</v>
+        <v>45765</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E66" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>285</v>
@@ -8281,58 +8296,58 @@
         <v>1</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>286</v>
       </c>
       <c r="M66" s="3">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>44</v>
       </c>
       <c r="P66" s="3">
-        <v>490</v>
+        <v>337</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>289</v>
       </c>
       <c r="S66" s="3">
-        <v>1696</v>
+        <v>1558</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>48</v>
       </c>
       <c r="V66" s="3">
-        <v>31476</v>
+        <v>25986</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>335</v>
+        <v>51</v>
       </c>
       <c r="X66" s="3" t="s">
         <v>292</v>
       </c>
       <c r="Y66" s="3">
-        <v>26041</v>
+        <v>25151</v>
       </c>
       <c r="Z66" s="3" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AA66" s="3" t="s">
         <v>294</v>
       </c>
       <c r="AB66" s="3">
-        <v>140041</v>
+        <v>132530</v>
       </c>
       <c r="AC66" s="3" t="s">
         <v>133</v>
@@ -8341,28 +8356,28 @@
         <v>295</v>
       </c>
       <c r="AE66" s="3">
-        <v>222477</v>
+        <v>212567</v>
       </c>
       <c r="AF66" s="3" t="s">
         <v>296</v>
       </c>
       <c r="AG66" s="3" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="AH66" s="3" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="AI66" s="3" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="AJ66" s="3" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AK66" s="3" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="AL66" s="4">
-        <v>45765</v>
+        <v>45769</v>
       </c>
     </row>
     <row r="67" spans="1:38" ht="87" x14ac:dyDescent="0.35">
@@ -8370,16 +8385,16 @@
         <v>280</v>
       </c>
       <c r="B67" s="3">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C67" s="4">
-        <v>45758</v>
+        <v>45762</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="E67" s="3">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>285</v>
@@ -8397,58 +8412,58 @@
         <v>1</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>286</v>
       </c>
       <c r="M67" s="3">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="O67" s="3" t="s">
         <v>44</v>
       </c>
       <c r="P67" s="3">
-        <v>574</v>
+        <v>490</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="R67" s="3" t="s">
         <v>289</v>
       </c>
       <c r="S67" s="3">
-        <v>1764</v>
+        <v>1696</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="U67" s="3" t="s">
         <v>48</v>
       </c>
       <c r="V67" s="3">
-        <v>31766</v>
+        <v>31476</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="X67" s="3" t="s">
         <v>292</v>
       </c>
       <c r="Y67" s="3">
-        <v>25291</v>
+        <v>26041</v>
       </c>
       <c r="Z67" s="3" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="AA67" s="3" t="s">
         <v>294</v>
       </c>
       <c r="AB67" s="3">
-        <v>133482</v>
+        <v>140041</v>
       </c>
       <c r="AC67" s="3" t="s">
         <v>133</v>
@@ -8457,28 +8472,28 @@
         <v>295</v>
       </c>
       <c r="AE67" s="3">
-        <v>214414</v>
+        <v>222477</v>
       </c>
       <c r="AF67" s="3" t="s">
         <v>296</v>
       </c>
       <c r="AG67" s="3" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="AH67" s="3" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="AI67" s="3" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="AJ67" s="3" t="s">
-        <v>261</v>
+        <v>340</v>
       </c>
       <c r="AK67" s="3" t="s">
         <v>341</v>
       </c>
       <c r="AL67" s="4">
-        <v>45762</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="68" spans="1:38" ht="87" x14ac:dyDescent="0.35">
@@ -8486,25 +8501,25 @@
         <v>280</v>
       </c>
       <c r="B68" s="3">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="C68" s="4">
-        <v>45755</v>
+        <v>45758</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E68" s="3">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>285</v>
       </c>
       <c r="G68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>353</v>
+        <v>38</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>40</v>
@@ -8513,58 +8528,58 @@
         <v>1</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>286</v>
       </c>
       <c r="M68" s="3">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="O68" s="3" t="s">
         <v>44</v>
       </c>
       <c r="P68" s="3">
-        <v>741</v>
+        <v>574</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="R68" s="3" t="s">
         <v>289</v>
       </c>
       <c r="S68" s="3">
-        <v>2037</v>
+        <v>1764</v>
       </c>
       <c r="T68" s="3" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="U68" s="3" t="s">
         <v>48</v>
       </c>
       <c r="V68" s="3">
-        <v>35306</v>
+        <v>31766</v>
       </c>
       <c r="W68" s="3" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="X68" s="3" t="s">
         <v>292</v>
       </c>
       <c r="Y68" s="3">
-        <v>26332</v>
+        <v>25291</v>
       </c>
       <c r="Z68" s="3" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="AA68" s="3" t="s">
         <v>294</v>
       </c>
       <c r="AB68" s="3">
-        <v>139505</v>
+        <v>133482</v>
       </c>
       <c r="AC68" s="3" t="s">
         <v>133</v>
@@ -8573,28 +8588,28 @@
         <v>295</v>
       </c>
       <c r="AE68" s="3">
-        <v>203632</v>
+        <v>214414</v>
       </c>
       <c r="AF68" s="3" t="s">
         <v>296</v>
       </c>
       <c r="AG68" s="3" t="s">
-        <v>38</v>
+        <v>349</v>
       </c>
       <c r="AH68" s="3" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AI68" s="3" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="AJ68" s="3" t="s">
-        <v>362</v>
+        <v>261</v>
       </c>
       <c r="AK68" s="3" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="AL68" s="4">
-        <v>45758</v>
+        <v>45762</v>
       </c>
     </row>
     <row r="69" spans="1:38" ht="87" x14ac:dyDescent="0.35">
@@ -8602,85 +8617,85 @@
         <v>280</v>
       </c>
       <c r="B69" s="3">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C69" s="4">
-        <v>45751</v>
+        <v>45755</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="E69" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>285</v>
       </c>
       <c r="G69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>38</v>
+        <v>353</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>40</v>
       </c>
       <c r="J69" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>286</v>
       </c>
       <c r="M69" s="3">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="O69" s="3" t="s">
         <v>44</v>
       </c>
       <c r="P69" s="3">
-        <v>700</v>
+        <v>741</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="R69" s="3" t="s">
         <v>289</v>
       </c>
       <c r="S69" s="3">
-        <v>1703</v>
+        <v>2037</v>
       </c>
       <c r="T69" s="3" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="U69" s="3" t="s">
         <v>48</v>
       </c>
       <c r="V69" s="3">
-        <v>33723</v>
+        <v>35306</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="X69" s="3" t="s">
         <v>292</v>
       </c>
       <c r="Y69" s="3">
-        <v>24919</v>
+        <v>26332</v>
       </c>
       <c r="Z69" s="3" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="AA69" s="3" t="s">
         <v>294</v>
       </c>
       <c r="AB69" s="3">
-        <v>136334</v>
+        <v>139505</v>
       </c>
       <c r="AC69" s="3" t="s">
         <v>133</v>
@@ -8689,28 +8704,28 @@
         <v>295</v>
       </c>
       <c r="AE69" s="3">
-        <v>222365</v>
+        <v>203632</v>
       </c>
       <c r="AF69" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="AG69" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH69" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI69" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ69" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK69" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL69" s="5" t="s">
-        <v>116</v>
+      <c r="AG69" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH69" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="AI69" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="AJ69" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="AK69" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL69" s="4">
+        <v>45758</v>
       </c>
     </row>
     <row r="70" spans="1:38" ht="87" x14ac:dyDescent="0.35">
@@ -8718,97 +8733,97 @@
         <v>280</v>
       </c>
       <c r="B70" s="3">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="C70" s="4">
-        <v>45748</v>
+        <v>45751</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E70" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="G70" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>116</v>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J70" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="K70" s="5" t="s">
-        <v>116</v>
+      <c r="J70" s="3">
+        <v>2</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="M70" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="N70" s="5" t="s">
-        <v>116</v>
+      <c r="M70" s="3">
+        <v>51</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="O70" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P70" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q70" s="5" t="s">
-        <v>116</v>
+      <c r="P70" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q70" s="3" t="s">
+        <v>366</v>
       </c>
       <c r="R70" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="S70" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="T70" s="5" t="s">
-        <v>116</v>
+      <c r="S70" s="3">
+        <v>1703</v>
+      </c>
+      <c r="T70" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="U70" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="V70" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="W70" s="5" t="s">
-        <v>116</v>
+      <c r="V70" s="3">
+        <v>33723</v>
+      </c>
+      <c r="W70" s="3" t="s">
+        <v>368</v>
       </c>
       <c r="X70" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="Y70" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z70" s="5" t="s">
-        <v>116</v>
+      <c r="Y70" s="3">
+        <v>24919</v>
+      </c>
+      <c r="Z70" s="3" t="s">
+        <v>369</v>
       </c>
       <c r="AA70" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="AB70" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC70" s="5" t="s">
-        <v>116</v>
+      <c r="AB70" s="3">
+        <v>136334</v>
+      </c>
+      <c r="AC70" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="AD70" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="AE70" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF70" s="5" t="s">
-        <v>116</v>
+      <c r="AE70" s="3">
+        <v>222365</v>
+      </c>
+      <c r="AF70" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="AG70" s="5" t="s">
         <v>116</v>
@@ -8834,16 +8849,16 @@
         <v>280</v>
       </c>
       <c r="B71" s="3">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="C71" s="4">
-        <v>45744</v>
+        <v>45748</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E71" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>285</v>
@@ -8950,16 +8965,16 @@
         <v>280</v>
       </c>
       <c r="B72" s="3">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="C72" s="4">
-        <v>45741</v>
+        <v>45744</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E72" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>285</v>
@@ -9066,16 +9081,16 @@
         <v>280</v>
       </c>
       <c r="B73" s="3">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="C73" s="4">
-        <v>45737</v>
+        <v>45741</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E73" s="3">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>285</v>
@@ -9182,16 +9197,16 @@
         <v>280</v>
       </c>
       <c r="B74" s="3">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C74" s="4">
-        <v>45734</v>
+        <v>45737</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E74" s="3">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>285</v>
@@ -9298,16 +9313,16 @@
         <v>280</v>
       </c>
       <c r="B75" s="3">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C75" s="4">
-        <v>45730</v>
+        <v>45734</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E75" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>285</v>
@@ -9414,13 +9429,13 @@
         <v>280</v>
       </c>
       <c r="B76" s="3">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C76" s="4">
-        <v>45727</v>
+        <v>45730</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E76" s="3">
         <v>2</v>
@@ -9530,16 +9545,16 @@
         <v>280</v>
       </c>
       <c r="B77" s="3">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C77" s="4">
-        <v>45723</v>
+        <v>45727</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E77" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>285</v>
@@ -9646,16 +9661,16 @@
         <v>280</v>
       </c>
       <c r="B78" s="3">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="C78" s="4">
-        <v>45720</v>
+        <v>45723</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E78" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>285</v>
@@ -9759,118 +9774,118 @@
     </row>
     <row r="79" spans="1:38" ht="87" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>379</v>
+        <v>280</v>
       </c>
       <c r="B79" s="3">
-        <v>1610</v>
+        <v>1594</v>
       </c>
       <c r="C79" s="4">
-        <v>45776</v>
+        <v>45720</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E79" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="G79" s="3">
-        <v>0</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>38</v>
+      <c r="G79" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J79" s="3">
-        <v>0</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>38</v>
+      <c r="J79" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="L79" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="M79" s="3">
-        <v>17</v>
-      </c>
-      <c r="N79" s="3" t="s">
-        <v>381</v>
+      <c r="M79" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="O79" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P79" s="3">
-        <v>320</v>
-      </c>
-      <c r="Q79" s="3" t="s">
-        <v>382</v>
+      <c r="P79" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q79" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="R79" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="S79" s="3">
-        <v>790</v>
-      </c>
-      <c r="T79" s="3" t="s">
-        <v>383</v>
+      <c r="S79" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="T79" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="U79" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="V79" s="3">
-        <v>14756</v>
-      </c>
-      <c r="W79" s="3" t="s">
-        <v>384</v>
+      <c r="V79" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="W79" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="X79" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="Y79" s="3">
-        <v>11121</v>
-      </c>
-      <c r="Z79" s="3" t="s">
-        <v>384</v>
+      <c r="Y79" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z79" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="AA79" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="AB79" s="3">
-        <v>71910</v>
-      </c>
-      <c r="AC79" s="3" t="s">
-        <v>385</v>
+      <c r="AB79" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC79" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="AD79" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="AE79" s="3">
-        <v>94712</v>
-      </c>
-      <c r="AF79" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="AG79" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="AH79" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="AI79" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="AJ79" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="AK79" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="AL79" s="4">
-        <v>45779</v>
+      <c r="AE79" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF79" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG79" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH79" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI79" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ79" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK79" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL79" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:38" ht="87" x14ac:dyDescent="0.35">
@@ -9878,16 +9893,16 @@
         <v>379</v>
       </c>
       <c r="B80" s="3">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="C80" s="4">
-        <v>45772</v>
+        <v>45776</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E80" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>285</v>
@@ -9902,61 +9917,61 @@
         <v>40</v>
       </c>
       <c r="J80" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>392</v>
+        <v>38</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>286</v>
       </c>
       <c r="M80" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="O80" s="3" t="s">
         <v>44</v>
       </c>
       <c r="P80" s="3">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="R80" s="3" t="s">
         <v>289</v>
       </c>
       <c r="S80" s="3">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="T80" s="3" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="U80" s="3" t="s">
         <v>48</v>
       </c>
       <c r="V80" s="3">
-        <v>17423</v>
+        <v>14756</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="X80" s="3" t="s">
         <v>292</v>
       </c>
       <c r="Y80" s="3">
-        <v>16507</v>
+        <v>11121</v>
       </c>
       <c r="Z80" s="3" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="AA80" s="3" t="s">
         <v>294</v>
       </c>
       <c r="AB80" s="3">
-        <v>87140</v>
+        <v>71910</v>
       </c>
       <c r="AC80" s="3" t="s">
         <v>385</v>
@@ -9965,28 +9980,28 @@
         <v>295</v>
       </c>
       <c r="AE80" s="3">
-        <v>108985</v>
+        <v>94712</v>
       </c>
       <c r="AF80" s="3" t="s">
         <v>386</v>
       </c>
       <c r="AG80" s="3" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="AH80" s="3" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="AI80" s="3" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="AJ80" s="3" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="AK80" s="3" t="s">
         <v>301</v>
       </c>
       <c r="AL80" s="4">
-        <v>45776</v>
+        <v>45779</v>
       </c>
     </row>
     <row r="81" spans="1:38" ht="87" x14ac:dyDescent="0.35">
@@ -9994,16 +10009,16 @@
         <v>379</v>
       </c>
       <c r="B81" s="3">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C81" s="4">
-        <v>45769</v>
+        <v>45772</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="E81" s="3">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>285</v>
@@ -10018,43 +10033,43 @@
         <v>40</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>38</v>
+        <v>392</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>286</v>
       </c>
       <c r="M81" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>44</v>
       </c>
       <c r="P81" s="3">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>289</v>
       </c>
       <c r="S81" s="3">
-        <v>1145</v>
+        <v>786</v>
       </c>
       <c r="T81" s="3" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>48</v>
       </c>
       <c r="V81" s="3">
-        <v>22463</v>
+        <v>17423</v>
       </c>
       <c r="W81" s="3" t="s">
         <v>396</v>
@@ -10063,16 +10078,16 @@
         <v>292</v>
       </c>
       <c r="Y81" s="3">
-        <v>24452</v>
+        <v>16507</v>
       </c>
       <c r="Z81" s="3" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="AA81" s="3" t="s">
         <v>294</v>
       </c>
       <c r="AB81" s="3">
-        <v>124812</v>
+        <v>87140</v>
       </c>
       <c r="AC81" s="3" t="s">
         <v>385</v>
@@ -10081,28 +10096,28 @@
         <v>295</v>
       </c>
       <c r="AE81" s="3">
-        <v>170117</v>
+        <v>108985</v>
       </c>
       <c r="AF81" s="3" t="s">
         <v>386</v>
       </c>
       <c r="AG81" s="3" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="AH81" s="3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="AI81" s="3" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="AJ81" s="3" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="AK81" s="3" t="s">
         <v>301</v>
       </c>
       <c r="AL81" s="4">
-        <v>45772</v>
+        <v>45776</v>
       </c>
     </row>
     <row r="82" spans="1:38" ht="87" x14ac:dyDescent="0.35">
@@ -10110,16 +10125,16 @@
         <v>379</v>
       </c>
       <c r="B82" s="3">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C82" s="4">
-        <v>45765</v>
+        <v>45769</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E82" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>285</v>
@@ -10143,52 +10158,52 @@
         <v>286</v>
       </c>
       <c r="M82" s="3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="O82" s="3" t="s">
         <v>44</v>
       </c>
       <c r="P82" s="3">
-        <v>284</v>
+        <v>194</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="R82" s="3" t="s">
         <v>289</v>
       </c>
       <c r="S82" s="3">
-        <v>1441</v>
+        <v>1145</v>
       </c>
       <c r="T82" s="3" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="U82" s="3" t="s">
         <v>48</v>
       </c>
       <c r="V82" s="3">
-        <v>27560</v>
+        <v>22463</v>
       </c>
       <c r="W82" s="3" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="X82" s="3" t="s">
         <v>292</v>
       </c>
       <c r="Y82" s="3">
-        <v>22790</v>
+        <v>24452</v>
       </c>
       <c r="Z82" s="3" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="AA82" s="3" t="s">
         <v>294</v>
       </c>
       <c r="AB82" s="3">
-        <v>109705</v>
+        <v>124812</v>
       </c>
       <c r="AC82" s="3" t="s">
         <v>385</v>
@@ -10197,28 +10212,28 @@
         <v>295</v>
       </c>
       <c r="AE82" s="3">
-        <v>177362</v>
+        <v>170117</v>
       </c>
       <c r="AF82" s="3" t="s">
         <v>386</v>
       </c>
       <c r="AG82" s="3" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="AH82" s="3" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="AI82" s="3" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="AJ82" s="3" t="s">
-        <v>90</v>
+        <v>410</v>
       </c>
       <c r="AK82" s="3" t="s">
         <v>301</v>
       </c>
       <c r="AL82" s="4">
-        <v>45769</v>
+        <v>45772</v>
       </c>
     </row>
     <row r="83" spans="1:38" ht="87" x14ac:dyDescent="0.35">
@@ -10226,16 +10241,16 @@
         <v>379</v>
       </c>
       <c r="B83" s="3">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="C83" s="4">
-        <v>45762</v>
+        <v>45765</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E83" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>285</v>
@@ -10259,52 +10274,52 @@
         <v>286</v>
       </c>
       <c r="M83" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>44</v>
       </c>
       <c r="P83" s="3">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>289</v>
       </c>
       <c r="S83" s="3">
-        <v>1309</v>
+        <v>1441</v>
       </c>
       <c r="T83" s="3" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>48</v>
       </c>
       <c r="V83" s="3">
-        <v>24114</v>
+        <v>27560</v>
       </c>
       <c r="W83" s="3" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>292</v>
       </c>
       <c r="Y83" s="3">
-        <v>20300</v>
+        <v>22790</v>
       </c>
       <c r="Z83" s="3" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>294</v>
       </c>
       <c r="AB83" s="3">
-        <v>93447</v>
+        <v>109705</v>
       </c>
       <c r="AC83" s="3" t="s">
         <v>385</v>
@@ -10313,28 +10328,28 @@
         <v>295</v>
       </c>
       <c r="AE83" s="3">
-        <v>147125</v>
+        <v>177362</v>
       </c>
       <c r="AF83" s="3" t="s">
         <v>386</v>
       </c>
       <c r="AG83" s="3" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="AH83" s="3" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="AI83" s="3" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="AJ83" s="3" t="s">
-        <v>427</v>
+        <v>90</v>
       </c>
       <c r="AK83" s="3" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="AL83" s="4">
-        <v>45765</v>
+        <v>45769</v>
       </c>
     </row>
     <row r="84" spans="1:38" ht="87" x14ac:dyDescent="0.35">
@@ -10342,16 +10357,16 @@
         <v>379</v>
       </c>
       <c r="B84" s="3">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C84" s="4">
-        <v>45758</v>
+        <v>45762</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="E84" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>285</v>
@@ -10366,61 +10381,61 @@
         <v>40</v>
       </c>
       <c r="J84" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>429</v>
+        <v>38</v>
       </c>
       <c r="L84" s="3" t="s">
         <v>286</v>
       </c>
       <c r="M84" s="3">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="O84" s="3" t="s">
         <v>44</v>
       </c>
       <c r="P84" s="3">
-        <v>476</v>
+        <v>264</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="R84" s="3" t="s">
         <v>289</v>
       </c>
       <c r="S84" s="3">
-        <v>1713</v>
+        <v>1309</v>
       </c>
       <c r="T84" s="3" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="U84" s="3" t="s">
         <v>48</v>
       </c>
       <c r="V84" s="3">
-        <v>30794</v>
+        <v>24114</v>
       </c>
       <c r="W84" s="3" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="X84" s="3" t="s">
         <v>292</v>
       </c>
       <c r="Y84" s="3">
-        <v>25470</v>
+        <v>20300</v>
       </c>
       <c r="Z84" s="3" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="AA84" s="3" t="s">
         <v>294</v>
       </c>
       <c r="AB84" s="3">
-        <v>11937</v>
+        <v>93447</v>
       </c>
       <c r="AC84" s="3" t="s">
         <v>385</v>
@@ -10429,28 +10444,28 @@
         <v>295</v>
       </c>
       <c r="AE84" s="3">
-        <v>194123</v>
+        <v>147125</v>
       </c>
       <c r="AF84" s="3" t="s">
         <v>386</v>
       </c>
       <c r="AG84" s="3" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="AH84" s="3" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="AI84" s="3" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="AJ84" s="3" t="s">
-        <v>340</v>
+        <v>427</v>
       </c>
       <c r="AK84" s="3" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="AL84" s="4">
-        <v>45762</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="85" spans="1:38" ht="87" x14ac:dyDescent="0.35">
@@ -10458,16 +10473,16 @@
         <v>379</v>
       </c>
       <c r="B85" s="3">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="C85" s="4">
-        <v>45755</v>
+        <v>45758</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="E85" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>285</v>
@@ -10482,61 +10497,61 @@
         <v>40</v>
       </c>
       <c r="J85" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>38</v>
+        <v>429</v>
       </c>
       <c r="L85" s="3" t="s">
         <v>286</v>
       </c>
       <c r="M85" s="3">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="O85" s="3" t="s">
         <v>44</v>
       </c>
       <c r="P85" s="3">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="R85" s="3" t="s">
         <v>289</v>
       </c>
       <c r="S85" s="3">
-        <v>1107</v>
+        <v>1713</v>
       </c>
       <c r="T85" s="3" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="U85" s="3" t="s">
         <v>48</v>
       </c>
       <c r="V85" s="3">
-        <v>17942</v>
+        <v>30794</v>
       </c>
       <c r="W85" s="3" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="X85" s="3" t="s">
         <v>292</v>
       </c>
       <c r="Y85" s="3">
-        <v>15011</v>
+        <v>25470</v>
       </c>
       <c r="Z85" s="3" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="AA85" s="3" t="s">
         <v>294</v>
       </c>
       <c r="AB85" s="3">
-        <v>86115</v>
+        <v>11937</v>
       </c>
       <c r="AC85" s="3" t="s">
         <v>385</v>
@@ -10545,28 +10560,28 @@
         <v>295</v>
       </c>
       <c r="AE85" s="3">
-        <v>175950</v>
+        <v>194123</v>
       </c>
       <c r="AF85" s="3" t="s">
         <v>386</v>
       </c>
       <c r="AG85" s="3" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="AH85" s="3" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="AI85" s="3" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="AJ85" s="3" t="s">
-        <v>108</v>
+        <v>340</v>
       </c>
       <c r="AK85" s="3" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="AL85" s="4">
-        <v>45758</v>
+        <v>45762</v>
       </c>
     </row>
     <row r="86" spans="1:38" ht="87" x14ac:dyDescent="0.35">
@@ -10574,16 +10589,16 @@
         <v>379</v>
       </c>
       <c r="B86" s="3">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C86" s="4">
-        <v>45751</v>
+        <v>45755</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="E86" s="3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>285</v>
@@ -10598,61 +10613,61 @@
         <v>40</v>
       </c>
       <c r="J86" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>448</v>
+        <v>38</v>
       </c>
       <c r="L86" s="3" t="s">
         <v>286</v>
       </c>
       <c r="M86" s="3">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="O86" s="3" t="s">
         <v>44</v>
       </c>
       <c r="P86" s="3">
-        <v>666</v>
+        <v>459</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="R86" s="3" t="s">
         <v>289</v>
       </c>
       <c r="S86" s="3">
-        <v>1570</v>
+        <v>1107</v>
       </c>
       <c r="T86" s="3" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="U86" s="3" t="s">
         <v>48</v>
       </c>
       <c r="V86" s="3">
-        <v>31512</v>
+        <v>17942</v>
       </c>
       <c r="W86" s="3" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="X86" s="3" t="s">
         <v>292</v>
       </c>
       <c r="Y86" s="3">
-        <v>21422</v>
+        <v>15011</v>
       </c>
       <c r="Z86" s="3" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="AA86" s="3" t="s">
         <v>294</v>
       </c>
       <c r="AB86" s="3">
-        <v>109522</v>
+        <v>86115</v>
       </c>
       <c r="AC86" s="3" t="s">
         <v>385</v>
@@ -10661,28 +10676,28 @@
         <v>295</v>
       </c>
       <c r="AE86" s="3">
-        <v>174505</v>
+        <v>175950</v>
       </c>
       <c r="AF86" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="AG86" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH86" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI86" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ86" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK86" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL86" s="5" t="s">
-        <v>116</v>
+      <c r="AG86" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="AH86" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="AI86" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ86" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK86" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL86" s="4">
+        <v>45758</v>
       </c>
     </row>
     <row r="87" spans="1:38" ht="87" x14ac:dyDescent="0.35">
@@ -10690,97 +10705,97 @@
         <v>379</v>
       </c>
       <c r="B87" s="3">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="C87" s="4">
-        <v>45748</v>
+        <v>45751</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E87" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="G87" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>116</v>
+      <c r="G87" s="3">
+        <v>0</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="I87" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J87" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="K87" s="5" t="s">
-        <v>116</v>
+      <c r="J87" s="3">
+        <v>3</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>448</v>
       </c>
       <c r="L87" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="M87" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="N87" s="5" t="s">
-        <v>116</v>
+      <c r="M87" s="3">
+        <v>60</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>449</v>
       </c>
       <c r="O87" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P87" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q87" s="5" t="s">
-        <v>116</v>
+      <c r="P87" s="3">
+        <v>666</v>
+      </c>
+      <c r="Q87" s="3" t="s">
+        <v>450</v>
       </c>
       <c r="R87" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="S87" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="T87" s="5" t="s">
-        <v>116</v>
+      <c r="S87" s="3">
+        <v>1570</v>
+      </c>
+      <c r="T87" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="U87" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="V87" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="W87" s="5" t="s">
-        <v>116</v>
+      <c r="V87" s="3">
+        <v>31512</v>
+      </c>
+      <c r="W87" s="3" t="s">
+        <v>452</v>
       </c>
       <c r="X87" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="Y87" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z87" s="5" t="s">
-        <v>116</v>
+      <c r="Y87" s="3">
+        <v>21422</v>
+      </c>
+      <c r="Z87" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="AA87" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="AB87" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC87" s="5" t="s">
-        <v>116</v>
+      <c r="AB87" s="3">
+        <v>109522</v>
+      </c>
+      <c r="AC87" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="AD87" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="AE87" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF87" s="5" t="s">
-        <v>116</v>
+      <c r="AE87" s="3">
+        <v>174505</v>
+      </c>
+      <c r="AF87" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="AG87" s="5" t="s">
         <v>116</v>
@@ -10806,16 +10821,16 @@
         <v>379</v>
       </c>
       <c r="B88" s="3">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="C88" s="4">
-        <v>45744</v>
+        <v>45748</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E88" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>285</v>
@@ -10922,16 +10937,16 @@
         <v>379</v>
       </c>
       <c r="B89" s="3">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="C89" s="4">
-        <v>45741</v>
+        <v>45744</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E89" s="3">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>285</v>
@@ -11038,16 +11053,16 @@
         <v>379</v>
       </c>
       <c r="B90" s="3">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="C90" s="4">
-        <v>45737</v>
+        <v>45741</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E90" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>285</v>
@@ -11154,16 +11169,16 @@
         <v>379</v>
       </c>
       <c r="B91" s="3">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C91" s="4">
-        <v>45734</v>
+        <v>45737</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E91" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>285</v>
@@ -11270,13 +11285,13 @@
         <v>379</v>
       </c>
       <c r="B92" s="3">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C92" s="4">
-        <v>45730</v>
+        <v>45734</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E92" s="3">
         <v>3</v>
@@ -11386,16 +11401,16 @@
         <v>379</v>
       </c>
       <c r="B93" s="3">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C93" s="4">
-        <v>45727</v>
+        <v>45730</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E93" s="3">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>285</v>
@@ -11502,16 +11517,16 @@
         <v>379</v>
       </c>
       <c r="B94" s="3">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C94" s="4">
-        <v>45723</v>
+        <v>45727</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E94" s="3">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>285</v>
@@ -11618,16 +11633,16 @@
         <v>379</v>
       </c>
       <c r="B95" s="3">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="C95" s="4">
-        <v>45720</v>
+        <v>45723</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E95" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>285</v>
@@ -11729,143 +11744,197 @@
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A97" s="2" t="s">
+    <row r="96" spans="1:38" ht="87" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1594</v>
+      </c>
+      <c r="C96" s="4">
+        <v>45720</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E96" s="3">
+        <v>15</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="M96" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="N96" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O96" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P96" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q96" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R96" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="S96" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="T96" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="U96" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V96" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="W96" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="X96" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y96" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z96" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA96" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB96" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC96" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD96" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE96" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF96" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG96" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH96" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI96" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ96" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK96" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL96" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A103" s="2" t="s">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="58" x14ac:dyDescent="0.35">
-      <c r="A105" s="3" t="s">
+    <row r="106" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D106" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E106" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F105" s="3" t="s">
+      <c r="F106" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G105" s="3" t="s">
+      <c r="G106" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H105" s="3" t="s">
+      <c r="H106" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I105" s="3" t="s">
+      <c r="I106" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J105" s="3" t="s">
+      <c r="J106" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K105" s="3" t="s">
+      <c r="K106" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L105" s="3" t="s">
+      <c r="L106" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M105" s="3" t="s">
+      <c r="M106" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N105" s="3" t="s">
+      <c r="N106" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O105" s="3" t="s">
+      <c r="O106" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P105" s="3" t="s">
+      <c r="P106" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q105" s="3" t="s">
+      <c r="Q106" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R105" s="3" t="s">
+      <c r="R106" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S105" s="3" t="s">
+      <c r="S106" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T105" s="3" t="s">
+      <c r="T106" s="3" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="B106" s="3">
-        <v>2239</v>
-      </c>
-      <c r="C106" s="4">
-        <v>45778</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F106" s="3">
-        <v>1</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I106" s="3">
-        <v>401</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="K106" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L106" s="3">
-        <v>12279</v>
-      </c>
-      <c r="M106" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="N106" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="O106" s="3">
-        <v>117908</v>
-      </c>
-      <c r="P106" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q106" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="R106" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="S106" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T106" s="4">
-        <v>45779</v>
       </c>
     </row>
     <row r="107" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
@@ -11873,61 +11942,61 @@
         <v>464</v>
       </c>
       <c r="B107" s="3">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="C107" s="4">
-        <v>45777</v>
+        <v>45778</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F107" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>44</v>
       </c>
       <c r="I107" s="3">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>48</v>
       </c>
       <c r="L107" s="3">
-        <v>130942</v>
+        <v>12279</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>475</v>
+        <v>325</v>
       </c>
       <c r="N107" s="3" t="s">
         <v>468</v>
       </c>
       <c r="O107" s="3">
-        <v>110845</v>
+        <v>117908</v>
       </c>
       <c r="P107" s="3" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="Q107" s="3" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="R107" s="3" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S107" s="3" t="s">
         <v>56</v>
       </c>
       <c r="T107" s="4">
-        <v>45778</v>
+        <v>45779</v>
       </c>
     </row>
     <row r="108" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
@@ -11935,10 +12004,10 @@
         <v>464</v>
       </c>
       <c r="B108" s="3">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="C108" s="4">
-        <v>45776</v>
+        <v>45777</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>472</v>
@@ -11989,7 +12058,7 @@
         <v>56</v>
       </c>
       <c r="T108" s="4">
-        <v>45777</v>
+        <v>45778</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
@@ -11997,61 +12066,61 @@
         <v>464</v>
       </c>
       <c r="B109" s="3">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="C109" s="4">
-        <v>45775</v>
+        <v>45776</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F109" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>44</v>
       </c>
       <c r="I109" s="3">
-        <v>303</v>
+        <v>439</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="K109" s="3" t="s">
         <v>48</v>
       </c>
       <c r="L109" s="3">
-        <v>10154</v>
+        <v>130942</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="N109" s="3" t="s">
         <v>468</v>
       </c>
       <c r="O109" s="3">
-        <v>91279</v>
+        <v>110845</v>
       </c>
       <c r="P109" s="3" t="s">
-        <v>386</v>
+        <v>476</v>
       </c>
       <c r="Q109" s="3" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="R109" s="3" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="S109" s="3" t="s">
         <v>56</v>
       </c>
       <c r="T109" s="4">
-        <v>45776</v>
+        <v>45777</v>
       </c>
     </row>
     <row r="110" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
@@ -12059,61 +12128,61 @@
         <v>464</v>
       </c>
       <c r="B110" s="3">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="C110" s="4">
-        <v>45774</v>
+        <v>45775</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F110" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>116</v>
+      <c r="F110" s="3">
+        <v>3</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>480</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I110" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J110" s="5" t="s">
-        <v>116</v>
+      <c r="I110" s="3">
+        <v>303</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>481</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L110" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="M110" s="5" t="s">
-        <v>116</v>
+      <c r="L110" s="3">
+        <v>10154</v>
+      </c>
+      <c r="M110" s="3" t="s">
+        <v>482</v>
       </c>
       <c r="N110" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="O110" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="P110" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q110" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="R110" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="S110" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="T110" s="5" t="s">
-        <v>116</v>
+      <c r="O110" s="3">
+        <v>91279</v>
+      </c>
+      <c r="P110" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q110" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="R110" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="S110" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T110" s="4">
+        <v>45776</v>
       </c>
     </row>
     <row r="111" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
@@ -12121,13 +12190,13 @@
         <v>464</v>
       </c>
       <c r="B111" s="3">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="C111" s="4">
-        <v>45773</v>
+        <v>45774</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>40</v>
@@ -12183,61 +12252,61 @@
         <v>464</v>
       </c>
       <c r="B112" s="3">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="C112" s="4">
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F112" s="3">
-        <v>1</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>480</v>
+      <c r="F112" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I112" s="3">
-        <v>484</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>488</v>
+      <c r="I112" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="K112" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L112" s="3">
-        <v>147602</v>
-      </c>
-      <c r="M112" s="3" t="s">
-        <v>51</v>
+      <c r="L112" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M112" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="N112" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="O112" s="3">
-        <v>117507</v>
-      </c>
-      <c r="P112" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q112" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="R112" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="S112" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T112" s="4">
-        <v>45773</v>
+      <c r="O112" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P112" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q112" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R112" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="S112" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="T112" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
@@ -12245,13 +12314,13 @@
         <v>464</v>
       </c>
       <c r="B113" s="3">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="C113" s="4">
-        <v>45771</v>
+        <v>45772</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>40</v>
@@ -12260,46 +12329,46 @@
         <v>1</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>44</v>
       </c>
       <c r="I113" s="3">
-        <v>387</v>
+        <v>484</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="K113" s="3" t="s">
         <v>48</v>
       </c>
       <c r="L113" s="3">
-        <v>11095</v>
+        <v>147602</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>494</v>
+        <v>51</v>
       </c>
       <c r="N113" s="3" t="s">
         <v>468</v>
       </c>
       <c r="O113" s="3">
-        <v>107946</v>
+        <v>117507</v>
       </c>
       <c r="P113" s="3" t="s">
-        <v>495</v>
+        <v>386</v>
       </c>
       <c r="Q113" s="3" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="R113" s="3" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="S113" s="3" t="s">
         <v>56</v>
       </c>
       <c r="T113" s="4">
-        <v>45772</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="114" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
@@ -12307,13 +12376,13 @@
         <v>464</v>
       </c>
       <c r="B114" s="3">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="C114" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>40</v>
@@ -12322,46 +12391,46 @@
         <v>1</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>44</v>
       </c>
       <c r="I114" s="3">
-        <v>270</v>
+        <v>387</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="K114" s="3" t="s">
         <v>48</v>
       </c>
       <c r="L114" s="3">
-        <v>11813</v>
+        <v>11095</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="N114" s="3" t="s">
         <v>468</v>
       </c>
       <c r="O114" s="3">
-        <v>109949</v>
+        <v>107946</v>
       </c>
       <c r="P114" s="3" t="s">
-        <v>386</v>
+        <v>495</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="R114" s="3" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="S114" s="3" t="s">
         <v>56</v>
       </c>
       <c r="T114" s="4">
-        <v>45771</v>
+        <v>45772</v>
       </c>
     </row>
     <row r="115" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
@@ -12369,61 +12438,61 @@
         <v>464</v>
       </c>
       <c r="B115" s="3">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="C115" s="4">
-        <v>45769</v>
+        <v>45770</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F115" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>44</v>
       </c>
       <c r="I115" s="3">
-        <v>363</v>
+        <v>270</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="K115" s="3" t="s">
         <v>48</v>
       </c>
       <c r="L115" s="3">
-        <v>11291</v>
+        <v>11813</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="N115" s="3" t="s">
         <v>468</v>
       </c>
       <c r="O115" s="3">
-        <v>112725</v>
+        <v>109949</v>
       </c>
       <c r="P115" s="3" t="s">
-        <v>508</v>
+        <v>386</v>
       </c>
       <c r="Q115" s="3" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="R115" s="3" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="S115" s="3" t="s">
         <v>56</v>
       </c>
       <c r="T115" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
     </row>
     <row r="116" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
@@ -12431,61 +12500,61 @@
         <v>464</v>
       </c>
       <c r="B116" s="3">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="C116" s="4">
-        <v>45768</v>
+        <v>45769</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F116" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>44</v>
       </c>
       <c r="I116" s="3">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="K116" s="3" t="s">
         <v>48</v>
       </c>
       <c r="L116" s="3">
-        <v>10158</v>
+        <v>11291</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N116" s="3" t="s">
         <v>468</v>
       </c>
       <c r="O116" s="3">
-        <v>84727</v>
+        <v>112725</v>
       </c>
       <c r="P116" s="3" t="s">
-        <v>476</v>
+        <v>508</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="R116" s="3" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="S116" s="3" t="s">
         <v>56</v>
       </c>
       <c r="T116" s="4">
-        <v>45769</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="117" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
@@ -12493,61 +12562,61 @@
         <v>464</v>
       </c>
       <c r="B117" s="3">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="C117" s="4">
-        <v>45767</v>
+        <v>45768</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F117" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>116</v>
+      <c r="F117" s="3">
+        <v>1</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>512</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I117" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J117" s="5" t="s">
-        <v>116</v>
+      <c r="I117" s="3">
+        <v>342</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>513</v>
       </c>
       <c r="K117" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L117" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="M117" s="5" t="s">
-        <v>116</v>
+      <c r="L117" s="3">
+        <v>10158</v>
+      </c>
+      <c r="M117" s="3" t="s">
+        <v>514</v>
       </c>
       <c r="N117" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="O117" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="P117" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q117" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="R117" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="S117" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="T117" s="5" t="s">
-        <v>116</v>
+      <c r="O117" s="3">
+        <v>84727</v>
+      </c>
+      <c r="P117" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q117" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="R117" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="S117" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T117" s="4">
+        <v>45769</v>
       </c>
     </row>
     <row r="118" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
@@ -12555,61 +12624,61 @@
         <v>464</v>
       </c>
       <c r="B118" s="3">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="C118" s="4">
-        <v>45766</v>
+        <v>45767</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F118" s="3">
-        <v>2</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>519</v>
+      <c r="F118" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I118" s="3">
-        <v>364</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>520</v>
+      <c r="I118" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="K118" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L118" s="3">
-        <v>12730</v>
-      </c>
-      <c r="M118" s="3" t="s">
-        <v>521</v>
+      <c r="L118" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M118" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="N118" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="O118" s="3">
-        <v>101851</v>
-      </c>
-      <c r="P118" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q118" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="R118" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="S118" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T118" s="4">
-        <v>45767</v>
+      <c r="O118" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P118" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q118" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R118" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="S118" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="T118" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
@@ -12617,61 +12686,61 @@
         <v>464</v>
       </c>
       <c r="B119" s="3">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="C119" s="4">
-        <v>45765</v>
+        <v>45766</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F119" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>44</v>
       </c>
       <c r="I119" s="3">
-        <v>273</v>
+        <v>364</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="K119" s="3" t="s">
         <v>48</v>
       </c>
       <c r="L119" s="3">
-        <v>8972</v>
+        <v>12730</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
       <c r="N119" s="3" t="s">
         <v>468</v>
       </c>
       <c r="O119" s="3">
-        <v>98290</v>
+        <v>101851</v>
       </c>
       <c r="P119" s="3" t="s">
-        <v>386</v>
+        <v>508</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="R119" s="3" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="S119" s="3" t="s">
         <v>56</v>
       </c>
       <c r="T119" s="4">
-        <v>45766</v>
+        <v>45767</v>
       </c>
     </row>
     <row r="120" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
@@ -12679,61 +12748,61 @@
         <v>464</v>
       </c>
       <c r="B120" s="3">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="C120" s="4">
-        <v>45764</v>
+        <v>45765</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F120" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>44</v>
       </c>
       <c r="I120" s="3">
-        <v>451</v>
+        <v>273</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="K120" s="3" t="s">
         <v>48</v>
       </c>
       <c r="L120" s="3">
-        <v>12599</v>
+        <v>8972</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>532</v>
+        <v>494</v>
       </c>
       <c r="N120" s="3" t="s">
         <v>468</v>
       </c>
       <c r="O120" s="3">
-        <v>115110</v>
+        <v>98290</v>
       </c>
       <c r="P120" s="3" t="s">
         <v>386</v>
       </c>
       <c r="Q120" s="3" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="R120" s="3" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="S120" s="3" t="s">
         <v>56</v>
       </c>
       <c r="T120" s="4">
-        <v>45765</v>
+        <v>45766</v>
       </c>
     </row>
     <row r="121" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
@@ -12741,40 +12810,40 @@
         <v>464</v>
       </c>
       <c r="B121" s="3">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="C121" s="4">
-        <v>45763</v>
+        <v>45764</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F121" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>44</v>
       </c>
       <c r="I121" s="3">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="K121" s="3" t="s">
         <v>48</v>
       </c>
       <c r="L121" s="3">
-        <v>13109</v>
+        <v>12599</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="N121" s="3" t="s">
         <v>468</v>
@@ -12786,16 +12855,16 @@
         <v>386</v>
       </c>
       <c r="Q121" s="3" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="R121" s="3" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="S121" s="3" t="s">
         <v>56</v>
       </c>
       <c r="T121" s="4">
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="122" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
@@ -12803,61 +12872,61 @@
         <v>464</v>
       </c>
       <c r="B122" s="3">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="C122" s="4">
-        <v>45762</v>
+        <v>45763</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F122" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>44</v>
       </c>
       <c r="I122" s="3">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="K122" s="3" t="s">
         <v>48</v>
       </c>
       <c r="L122" s="3">
-        <v>13897</v>
+        <v>13109</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="N122" s="3" t="s">
         <v>468</v>
       </c>
       <c r="O122" s="3">
-        <v>130715</v>
+        <v>115110</v>
       </c>
       <c r="P122" s="3" t="s">
-        <v>476</v>
+        <v>386</v>
       </c>
       <c r="Q122" s="3" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="R122" s="3" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="S122" s="3" t="s">
         <v>56</v>
       </c>
       <c r="T122" s="4">
-        <v>45763</v>
+        <v>45764</v>
       </c>
     </row>
     <row r="123" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
@@ -12865,61 +12934,61 @@
         <v>464</v>
       </c>
       <c r="B123" s="3">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="C123" s="4">
-        <v>45761</v>
+        <v>45762</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F123" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>116</v>
+      <c r="F123" s="3">
+        <v>1</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>542</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I123" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J123" s="5" t="s">
-        <v>116</v>
+      <c r="I123" s="3">
+        <v>490</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>543</v>
       </c>
       <c r="K123" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L123" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="M123" s="5" t="s">
-        <v>116</v>
+      <c r="L123" s="3">
+        <v>13897</v>
+      </c>
+      <c r="M123" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="N123" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="O123" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="P123" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q123" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="R123" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="S123" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="T123" s="5" t="s">
-        <v>116</v>
+      <c r="O123" s="3">
+        <v>130715</v>
+      </c>
+      <c r="P123" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q123" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="R123" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="S123" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T123" s="4">
+        <v>45763</v>
       </c>
     </row>
     <row r="124" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
@@ -12927,61 +12996,61 @@
         <v>464</v>
       </c>
       <c r="B124" s="3">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="C124" s="4">
-        <v>45760</v>
+        <v>45761</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F124" s="3">
-        <v>1</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>549</v>
+      <c r="F124" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I124" s="3">
-        <v>270</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>550</v>
+      <c r="I124" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="K124" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L124" s="3">
-        <v>8917</v>
-      </c>
-      <c r="M124" s="3" t="s">
-        <v>551</v>
+      <c r="L124" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M124" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="N124" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="O124" s="3">
-        <v>81323</v>
-      </c>
-      <c r="P124" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q124" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="R124" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="S124" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T124" s="4">
-        <v>45761</v>
+      <c r="O124" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P124" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q124" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R124" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="S124" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="T124" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="125" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
@@ -12989,61 +13058,61 @@
         <v>464</v>
       </c>
       <c r="B125" s="3">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="C125" s="4">
-        <v>45759</v>
+        <v>45760</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F125" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>116</v>
+      <c r="F125" s="3">
+        <v>1</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>549</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I125" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J125" s="5" t="s">
-        <v>116</v>
+      <c r="I125" s="3">
+        <v>270</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>550</v>
       </c>
       <c r="K125" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L125" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="M125" s="5" t="s">
-        <v>116</v>
+      <c r="L125" s="3">
+        <v>8917</v>
+      </c>
+      <c r="M125" s="3" t="s">
+        <v>551</v>
       </c>
       <c r="N125" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="O125" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="P125" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q125" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="R125" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="S125" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="T125" s="5" t="s">
-        <v>116</v>
+      <c r="O125" s="3">
+        <v>81323</v>
+      </c>
+      <c r="P125" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q125" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="R125" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="S125" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T125" s="4">
+        <v>45761</v>
       </c>
     </row>
     <row r="126" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
@@ -13051,13 +13120,13 @@
         <v>464</v>
       </c>
       <c r="B126" s="3">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="C126" s="4">
-        <v>45758</v>
+        <v>45759</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>40</v>
@@ -13113,61 +13182,61 @@
         <v>464</v>
       </c>
       <c r="B127" s="3">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="C127" s="4">
-        <v>45757</v>
+        <v>45758</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F127" s="3">
-        <v>6</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>557</v>
+      <c r="F127" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I127" s="3">
-        <v>263</v>
-      </c>
-      <c r="J127" s="3" t="s">
-        <v>558</v>
+      <c r="I127" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="K127" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L127" s="3">
-        <v>14040</v>
-      </c>
-      <c r="M127" s="3" t="s">
-        <v>501</v>
+      <c r="L127" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M127" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="N127" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="O127" s="3">
-        <v>133083</v>
-      </c>
-      <c r="P127" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q127" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="R127" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="S127" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T127" s="4">
-        <v>45758</v>
+      <c r="O127" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P127" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q127" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R127" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="S127" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="T127" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="128" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
@@ -13175,61 +13244,61 @@
         <v>464</v>
       </c>
       <c r="B128" s="3">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="C128" s="4">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F128" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>116</v>
+      <c r="F128" s="3">
+        <v>6</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>557</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I128" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J128" s="5" t="s">
-        <v>116</v>
+      <c r="I128" s="3">
+        <v>263</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>558</v>
       </c>
       <c r="K128" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L128" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="M128" s="5" t="s">
-        <v>116</v>
+      <c r="L128" s="3">
+        <v>14040</v>
+      </c>
+      <c r="M128" s="3" t="s">
+        <v>501</v>
       </c>
       <c r="N128" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="O128" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="P128" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q128" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="R128" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="S128" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="T128" s="5" t="s">
-        <v>116</v>
+      <c r="O128" s="3">
+        <v>133083</v>
+      </c>
+      <c r="P128" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q128" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="R128" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="S128" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T128" s="4">
+        <v>45758</v>
       </c>
     </row>
     <row r="129" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
@@ -13237,61 +13306,61 @@
         <v>464</v>
       </c>
       <c r="B129" s="3">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="C129" s="4">
-        <v>45755</v>
+        <v>45756</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F129" s="3">
-        <v>5</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>564</v>
+      <c r="F129" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I129" s="3">
-        <v>392</v>
-      </c>
-      <c r="J129" s="3" t="s">
-        <v>565</v>
+      <c r="I129" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="K129" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L129" s="3">
-        <v>13721</v>
-      </c>
-      <c r="M129" s="3" t="s">
-        <v>348</v>
+      <c r="L129" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M129" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="N129" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="O129" s="3">
-        <v>135011</v>
-      </c>
-      <c r="P129" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q129" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="R129" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="S129" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T129" s="4">
-        <v>45756</v>
+      <c r="O129" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P129" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q129" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R129" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="S129" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="T129" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="130" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
@@ -13299,61 +13368,61 @@
         <v>464</v>
       </c>
       <c r="B130" s="3">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="C130" s="4">
-        <v>45754</v>
+        <v>45755</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F130" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>116</v>
+      <c r="F130" s="3">
+        <v>5</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I130" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J130" s="5" t="s">
-        <v>116</v>
+      <c r="I130" s="3">
+        <v>392</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>565</v>
       </c>
       <c r="K130" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L130" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="M130" s="5" t="s">
-        <v>116</v>
+      <c r="L130" s="3">
+        <v>13721</v>
+      </c>
+      <c r="M130" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="N130" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="O130" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="P130" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q130" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="R130" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="S130" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="T130" s="5" t="s">
-        <v>116</v>
+      <c r="O130" s="3">
+        <v>135011</v>
+      </c>
+      <c r="P130" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q130" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="R130" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="S130" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T130" s="4">
+        <v>45756</v>
       </c>
     </row>
     <row r="131" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
@@ -13361,13 +13430,13 @@
         <v>464</v>
       </c>
       <c r="B131" s="3">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="C131" s="4">
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>40</v>
@@ -13423,61 +13492,61 @@
         <v>464</v>
       </c>
       <c r="B132" s="3">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="C132" s="4">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F132" s="3">
-        <v>1</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>571</v>
+      <c r="F132" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I132" s="3">
-        <v>402</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>572</v>
+      <c r="I132" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J132" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="K132" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L132" s="3">
-        <v>13829</v>
-      </c>
-      <c r="M132" s="3" t="s">
-        <v>494</v>
+      <c r="L132" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M132" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="N132" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="O132" s="3">
-        <v>127665</v>
-      </c>
-      <c r="P132" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q132" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="R132" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="S132" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T132" s="4">
-        <v>45753</v>
+      <c r="O132" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P132" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q132" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R132" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="S132" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="T132" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="133" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
@@ -13485,61 +13554,61 @@
         <v>464</v>
       </c>
       <c r="B133" s="3">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="C133" s="4">
-        <v>45751</v>
+        <v>45752</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F133" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G133" s="5" t="s">
-        <v>116</v>
+      <c r="F133" s="3">
+        <v>1</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>571</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I133" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J133" s="5" t="s">
-        <v>116</v>
+      <c r="I133" s="3">
+        <v>402</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>572</v>
       </c>
       <c r="K133" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L133" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="M133" s="5" t="s">
-        <v>116</v>
+      <c r="L133" s="3">
+        <v>13829</v>
+      </c>
+      <c r="M133" s="3" t="s">
+        <v>494</v>
       </c>
       <c r="N133" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="O133" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="P133" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q133" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="R133" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="S133" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="T133" s="5" t="s">
-        <v>116</v>
+      <c r="O133" s="3">
+        <v>127665</v>
+      </c>
+      <c r="P133" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q133" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="R133" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="S133" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T133" s="4">
+        <v>45753</v>
       </c>
     </row>
     <row r="134" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
@@ -13547,13 +13616,13 @@
         <v>464</v>
       </c>
       <c r="B134" s="3">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="C134" s="4">
-        <v>45750</v>
+        <v>45751</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>40</v>
@@ -13609,13 +13678,13 @@
         <v>464</v>
       </c>
       <c r="B135" s="3">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C135" s="4">
-        <v>45749</v>
+        <v>45750</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>40</v>
@@ -13671,13 +13740,13 @@
         <v>464</v>
       </c>
       <c r="B136" s="3">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="C136" s="4">
-        <v>45748</v>
+        <v>45749</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>40</v>
@@ -13733,13 +13802,13 @@
         <v>464</v>
       </c>
       <c r="B137" s="3">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="C137" s="4">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>40</v>
@@ -13795,13 +13864,13 @@
         <v>464</v>
       </c>
       <c r="B138" s="3">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="C138" s="4">
-        <v>45746</v>
+        <v>45747</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>40</v>
@@ -13857,13 +13926,13 @@
         <v>464</v>
       </c>
       <c r="B139" s="3">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="C139" s="4">
-        <v>45745</v>
+        <v>45746</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>40</v>
@@ -13919,13 +13988,13 @@
         <v>464</v>
       </c>
       <c r="B140" s="3">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="C140" s="4">
-        <v>45744</v>
+        <v>45745</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>40</v>
@@ -13981,13 +14050,13 @@
         <v>464</v>
       </c>
       <c r="B141" s="3">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="C141" s="4">
-        <v>45743</v>
+        <v>45744</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>40</v>
@@ -14038,8 +14107,70 @@
         <v>116</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A143" s="2" t="s">
+    <row r="142" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A142" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B142" s="3">
+        <v>2204</v>
+      </c>
+      <c r="C142" s="4">
+        <v>45743</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I142" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J142" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L142" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M142" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="N142" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="O142" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P142" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q142" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R142" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="S142" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="T142" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A144" s="2" t="s">
         <v>584</v>
       </c>
     </row>
